--- a/data/energy_consumption/clean/aes_2010_2019.xlsx
+++ b/data/energy_consumption/clean/aes_2010_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18285\Documents\NSS\Capstone_Jeff\data\energy_consumption\clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F42971C-DA27-4C6D-BAC0-542C3744EB67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A24EC04-4FAC-4CCB-B5BE-5ABE84890048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="coal" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="25">
   <si>
     <t>units</t>
   </si>
@@ -86,13 +86,38 @@
   <si>
     <t>natural gas</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Invisible Bar</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Var +</t>
+  </si>
+  <si>
+    <t>Var -</t>
+  </si>
+  <si>
+    <t>Variance %</t>
+  </si>
+  <si>
+    <t>Thousands Tons</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -230,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,8 +435,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -526,6 +563,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -571,10 +636,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -622,6 +696,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF008000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -631,6 +710,4708 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Annual Coal Use (2015-2020)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>coal!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thousands Tons</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>coal!$O$2:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015               </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016               </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017               </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018               </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019               </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020               </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>coal!$P$2:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>61632.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56447.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55325.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53017.916666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44801.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35985.666666666664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-166A-4963-BE0E-AEE89A8D8E82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>coal!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Invisible Bar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-166A-4963-BE0E-AEE89A8D8E82}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-166A-4963-BE0E-AEE89A8D8E82}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-166A-4963-BE0E-AEE89A8D8E82}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-166A-4963-BE0E-AEE89A8D8E82}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-166A-4963-BE0E-AEE89A8D8E82}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1255793098607292E-17"/>
+                  <c:y val="0.13988326211746829"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0D53953F-9D3E-4158-BD63-4978FC9222B3}" type="CELLRANGE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-166A-4963-BE0E-AEE89A8D8E82}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.3188405797101449E-3"/>
+                  <c:y val="8.5091650983443984E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{33B9314F-FCEC-4FB0-823C-3FFEE003CF1C}" type="CELLRANGE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-166A-4963-BE0E-AEE89A8D8E82}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.5023172394429168E-17"/>
+                  <c:y val="9.9981282035742192E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B4FAF91C-D384-4931-886B-0DE2F8E208C0}" type="CELLRANGE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-166A-4963-BE0E-AEE89A8D8E82}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.5023172394429168E-17"/>
+                  <c:y val="0.1657304108995403"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DDCC7E08-6949-479A-BB9E-04E84E6F0314}" type="CELLRANGE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-166A-4963-BE0E-AEE89A8D8E82}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.5023172394429168E-17"/>
+                  <c:y val="0.17699283300411514"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6CDB3CE9-DD51-44B7-A9D3-F0B9D0353616}" type="CELLRANGE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-166A-4963-BE0E-AEE89A8D8E82}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-166A-4963-BE0E-AEE89A8D8E82}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>coal!$S$2:$S$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>coal!$T$2:$T$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>5185.25</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1121.75</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2307.9166666666715</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8216.5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8815.75</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>coal!$O$2:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015               </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016               </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017               </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018               </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019               </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020               </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>coal!$Q$2:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>56447.583333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55325.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53017.916666666664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44801.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35985.666666666664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>coal!$U$2:$U$6</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>-8.41%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-1.99%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>-4.17%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>-15.50%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>-19.68%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-166A-4963-BE0E-AEE89A8D8E82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="2003297583"/>
+        <c:axId val="2003295503"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2003297583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2003295503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2003295503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2003297583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Annual Petro Liquid Use (2015-2020)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14014894876476294"/>
+          <c:y val="3.1255680245190841E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>petroliq!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thousands Tons</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>petroliq!$O$2:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015               </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016               </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017               </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018               </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019               </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020               </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>petroliq!$P$2:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2410.4166666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1867.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1807.9166666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2384.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1736.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A766-4836-A0BF-0A4948FF5A10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>petroliq!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Invisible Bar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7776787242540079E-3"/>
+                  <c:y val="0.20524728039570084"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{D5EE7306-29C5-4C4B-B369-01B2BC878665}" type="CELLRANGE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr b="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-A766-4836-A0BF-0A4948FF5A10}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="9.9872265364898252E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{4921000E-3AA1-404A-8830-CFD7BFFAE721}" type="CELLRANGE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr b="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-A766-4836-A0BF-0A4948FF5A10}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-0.12500000000000006"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="008000"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{0A95EAC1-AC61-4DEA-AD19-6DA1FC122F80}" type="CELLRANGE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:srgbClr val="008000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr b="1">
+                          <a:solidFill>
+                            <a:srgbClr val="008000"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="008000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-A766-4836-A0BF-0A4948FF5A10}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.3025704503719124E-17"/>
+                  <c:y val="0.22350547214431046"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{7502982C-3DB8-4960-80CA-5F1DD1BBFFC8}" type="CELLRANGE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr b="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-A766-4836-A0BF-0A4948FF5A10}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.2620474825322366E-4"/>
+                  <c:y val="0.13270140265741484"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{7B27BC2F-6A8A-4FDF-A2D5-402E87ADC56D}" type="CELLRANGE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr b="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-A766-4836-A0BF-0A4948FF5A10}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-A766-4836-A0BF-0A4948FF5A10}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:srgbClr val="008000"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>petroliq!$S$2:$S$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="2">
+                    <c:v>577</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>petroliq!$T$2:$T$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>543.16666666666652</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>59.333333333333258</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>648.16666666666674</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>240.33333333333326</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>petroliq!$O$2:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015               </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016               </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017               </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018               </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019               </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020               </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>petroliq!$Q$2:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1867.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1807.9166666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2384.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1736.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>petroliq!$U$2:$U$6</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>-22.53%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-3.18%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>31.89%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>-27.18%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>-13.84%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A766-4836-A0BF-0A4948FF5A10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="2003313807"/>
+        <c:axId val="2003310479"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2003313807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2003310479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2003310479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2003313807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Annual Petro Coke Use (2015-2020)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>petrocoke!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thousands Tons</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>petrocoke!$O$2:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015               </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016               </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017               </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018               </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019               </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020               </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>petrocoke!$P$2:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>354.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>290.83333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>301.91666666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226.91666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>254.77777777777777</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F96C-432E-9241-D9D312535E57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>petrocoke!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Invisible Bar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3432927580814295E-3"/>
+                  <c:y val="-3.7106299212598448E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="008000"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{BAAE6A65-72BB-4142-95D5-0C713710FEEB}" type="CELLRANGE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:srgbClr val="008000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr b="1">
+                          <a:solidFill>
+                            <a:srgbClr val="008000"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="008000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-F96C-432E-9241-D9D312535E57}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="0.20363444152814222"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{2D45165E-C3B7-43EB-87F6-35E002B3C18C}" type="CELLRANGE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr b="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-F96C-432E-9241-D9D312535E57}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3432927580814078E-3"/>
+                  <c:y val="-1.3958151064450277E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="008000"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{A95D1B33-B35D-4D7D-BD6E-DEC08DBBDD53}" type="CELLRANGE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:srgbClr val="008000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr b="1">
+                          <a:solidFill>
+                            <a:srgbClr val="008000"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="008000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-F96C-432E-9241-D9D312535E57}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="0.22215296004666082"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{4347C7C5-70EA-48A7-BE27-DDBB4635F79C}" type="CELLRANGE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr b="1">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-F96C-432E-9241-D9D312535E57}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.5919741910794584E-17"/>
+                  <c:y val="-5.0995188101487357E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="008000"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{E5C388AC-953A-46CF-A47D-295C9DE5AA35}" type="CELLRANGE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:srgbClr val="008000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr b="1">
+                          <a:solidFill>
+                            <a:srgbClr val="008000"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="008000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-F96C-432E-9241-D9D312535E57}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-F96C-432E-9241-D9D312535E57}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:srgbClr val="008000"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>petrocoke!$S$2:$S$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>28</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>petrocoke!$T$2:$T$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="1">
+                    <c:v>63.666666666666686</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>75.000000000000028</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>petrocoke!$O$2:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015               </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016               </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017               </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018               </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019               </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020               </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>petrocoke!$Q$2:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>354.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290.83333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>301.91666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>226.91666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>254.77777777777777</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>petrocoke!$U$2:$U$6</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>5.19%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-17.96%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.81%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>-24.84%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>12.28%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F96C-432E-9241-D9D312535E57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="578825487"/>
+        <c:axId val="578822159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="578825487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578822159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="578822159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578825487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875EC814-B0DA-4364-B34A-6BCA8433E29A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>42860</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>391584</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1057</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F24378-E92B-47BC-9385-A234D442BDBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CA3B5B-D364-4B58-8B33-FFBFB5126BD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -930,10 +5711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:U130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,9 +5729,18 @@
     <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -981,8 +5771,33 @@
       <c r="J1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>YEAR(B2)</f>
         <v>2010</v>
@@ -1015,8 +5830,38 @@
       <c r="J2">
         <v>654</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M2" s="7">
+        <v>2015</v>
+      </c>
+      <c r="N2" s="7">
+        <f>AVERAGEIF(A1:A124,"2015", F1:F124)</f>
+        <v>61632.833333333336</v>
+      </c>
+      <c r="O2" s="7" t="str">
+        <f>M2&amp;REPT(" ", 15)</f>
+        <v xml:space="preserve">2015               </v>
+      </c>
+      <c r="P2" s="9">
+        <v>61632.833333333336</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>56447.583333333336</v>
+      </c>
+      <c r="R2" s="10">
+        <f>P2-Q2</f>
+        <v>5185.25</v>
+      </c>
+      <c r="S2" s="7"/>
+      <c r="T2" s="10">
+        <f>R2-S2</f>
+        <v>5185.25</v>
+      </c>
+      <c r="U2" s="3">
+        <f>IFERROR((P3-P2)/P2,0)</f>
+        <v>-8.41312936557084E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A66" si="0">YEAR(B3)</f>
         <v>2010</v>
@@ -1049,8 +5894,37 @@
       <c r="J3">
         <v>643</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>2016</v>
+      </c>
+      <c r="N3" s="6">
+        <f>AVERAGEIF(A1:A126,"2016", F1:F126)</f>
+        <v>56447.583333333336</v>
+      </c>
+      <c r="O3" s="7" t="str">
+        <f t="shared" ref="O3:O7" si="2">M3&amp;REPT(" ", 15)</f>
+        <v xml:space="preserve">2016               </v>
+      </c>
+      <c r="P3" s="5">
+        <v>56447.583333333336</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>55325.833333333336</v>
+      </c>
+      <c r="R3" s="5">
+        <f>P3-Q3</f>
+        <v>1121.75</v>
+      </c>
+      <c r="T3" s="5">
+        <f>R3-S3</f>
+        <v>1121.75</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" ref="U3:U6" si="3">IFERROR((P4-P3)/P3,0)</f>
+        <v>-1.9872418512159509E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -1083,8 +5957,37 @@
       <c r="J4">
         <v>746</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>2017</v>
+      </c>
+      <c r="N4" s="6">
+        <f>AVERAGEIF(A1:A128,"2017", F1:F128)</f>
+        <v>55325.833333333336</v>
+      </c>
+      <c r="O4" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">2017               </v>
+      </c>
+      <c r="P4" s="5">
+        <v>55325.833333333336</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>53017.916666666664</v>
+      </c>
+      <c r="R4" s="5">
+        <f>P4-Q4</f>
+        <v>2307.9166666666715</v>
+      </c>
+      <c r="T4" s="5">
+        <f>R4-S4</f>
+        <v>2307.9166666666715</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" si="3"/>
+        <v>-4.1714991489810449E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -1117,8 +6020,37 @@
       <c r="J5">
         <v>456</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>2018</v>
+      </c>
+      <c r="N5" s="6">
+        <f>AVERAGEIF(A2:A130,"2018", F2:F130)</f>
+        <v>53017.916666666664</v>
+      </c>
+      <c r="O5" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">2018               </v>
+      </c>
+      <c r="P5" s="5">
+        <v>53017.916666666664</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>44801.416666666664</v>
+      </c>
+      <c r="R5" s="5">
+        <f>P5-Q5</f>
+        <v>8216.5</v>
+      </c>
+      <c r="T5" s="5">
+        <f>R5-S5</f>
+        <v>8216.5</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.15497591223092824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -1151,8 +6083,37 @@
       <c r="J6">
         <v>727</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>2019</v>
+      </c>
+      <c r="N6">
+        <f>AVERAGEIF(A4:A132,"2019",F4:F132)</f>
+        <v>44801.416666666664</v>
+      </c>
+      <c r="O6" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">2019               </v>
+      </c>
+      <c r="P6" s="5">
+        <v>44801.416666666664</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>35985.666666666664</v>
+      </c>
+      <c r="R6" s="5">
+        <f>P6-Q6</f>
+        <v>8815.75</v>
+      </c>
+      <c r="T6" s="5">
+        <f>R6-S6</f>
+        <v>8815.75</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.19677391153925566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -1185,8 +6146,26 @@
       <c r="J7">
         <v>643</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>2020</v>
+      </c>
+      <c r="N7" s="6">
+        <f>AVERAGEIF(A6:A134,"2020",F6:F134)</f>
+        <v>35985.666666666664</v>
+      </c>
+      <c r="O7" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">2020               </v>
+      </c>
+      <c r="P7" s="5">
+        <v>35985.666666666664</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -1220,7 +6199,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -1254,7 +6233,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -1288,7 +6267,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -1322,7 +6301,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -1356,7 +6335,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -1390,7 +6369,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -1424,7 +6403,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -1458,7 +6437,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -3194,14 +8173,14 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" ref="A67:A130" si="2">YEAR(B67)</f>
+        <f t="shared" ref="A67:A130" si="4">YEAR(B67)</f>
         <v>2015</v>
       </c>
       <c r="B67" s="2">
         <v>42156</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" si="3">MONTH(B67)</f>
+        <f t="shared" ref="C67:C130" si="5">MONTH(B67)</f>
         <v>6</v>
       </c>
       <c r="D67" t="s">
@@ -3228,14 +8207,14 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2015</v>
       </c>
       <c r="B68" s="2">
         <v>42186</v>
       </c>
       <c r="C68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="D68" t="s">
@@ -3262,14 +8241,14 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2015</v>
       </c>
       <c r="B69" s="2">
         <v>42217</v>
       </c>
       <c r="C69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D69" t="s">
@@ -3296,14 +8275,14 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2015</v>
       </c>
       <c r="B70" s="2">
         <v>42248</v>
       </c>
       <c r="C70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="D70" t="s">
@@ -3330,14 +8309,14 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2015</v>
       </c>
       <c r="B71" s="2">
         <v>42278</v>
       </c>
       <c r="C71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="D71" t="s">
@@ -3364,14 +8343,14 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2015</v>
       </c>
       <c r="B72" s="2">
         <v>42309</v>
       </c>
       <c r="C72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="D72" t="s">
@@ -3398,14 +8377,14 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2015</v>
       </c>
       <c r="B73" s="2">
         <v>42339</v>
       </c>
       <c r="C73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="D73" t="s">
@@ -3432,14 +8411,14 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
       <c r="B74" s="2">
         <v>42370</v>
       </c>
       <c r="C74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D74" t="s">
@@ -3466,14 +8445,14 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
       <c r="B75" s="2">
         <v>42401</v>
       </c>
       <c r="C75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="D75" t="s">
@@ -3500,14 +8479,14 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
       <c r="B76" s="2">
         <v>42430</v>
       </c>
       <c r="C76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="D76" t="s">
@@ -3534,14 +8513,14 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
       <c r="B77" s="2">
         <v>42461</v>
       </c>
       <c r="C77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="D77" t="s">
@@ -3568,14 +8547,14 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
       <c r="B78" s="2">
         <v>42491</v>
       </c>
       <c r="C78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="D78" t="s">
@@ -3602,14 +8581,14 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
       <c r="B79" s="2">
         <v>42522</v>
       </c>
       <c r="C79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="D79" t="s">
@@ -3636,14 +8615,14 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
       <c r="B80" s="2">
         <v>42552</v>
       </c>
       <c r="C80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="D80" t="s">
@@ -3670,14 +8649,14 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
       <c r="B81" s="2">
         <v>42583</v>
       </c>
       <c r="C81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D81" t="s">
@@ -3704,14 +8683,14 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
       <c r="B82" s="2">
         <v>42614</v>
       </c>
       <c r="C82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="D82" t="s">
@@ -3738,14 +8717,14 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
       <c r="B83" s="2">
         <v>42644</v>
       </c>
       <c r="C83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="D83" t="s">
@@ -3772,14 +8751,14 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
       <c r="B84" s="2">
         <v>42675</v>
       </c>
       <c r="C84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="D84" t="s">
@@ -3806,14 +8785,14 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
       <c r="B85" s="2">
         <v>42705</v>
       </c>
       <c r="C85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="D85" t="s">
@@ -3840,14 +8819,14 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2017</v>
       </c>
       <c r="B86" s="2">
         <v>42736</v>
       </c>
       <c r="C86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D86" t="s">
@@ -3874,14 +8853,14 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2017</v>
       </c>
       <c r="B87" s="2">
         <v>42767</v>
       </c>
       <c r="C87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="D87" t="s">
@@ -3908,14 +8887,14 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2017</v>
       </c>
       <c r="B88" s="2">
         <v>42795</v>
       </c>
       <c r="C88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="D88" t="s">
@@ -3942,14 +8921,14 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2017</v>
       </c>
       <c r="B89" s="2">
         <v>42826</v>
       </c>
       <c r="C89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="D89" t="s">
@@ -3976,14 +8955,14 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2017</v>
       </c>
       <c r="B90" s="2">
         <v>42856</v>
       </c>
       <c r="C90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="D90" t="s">
@@ -4010,14 +8989,14 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2017</v>
       </c>
       <c r="B91" s="2">
         <v>42887</v>
       </c>
       <c r="C91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="D91" t="s">
@@ -4044,14 +9023,14 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2017</v>
       </c>
       <c r="B92" s="2">
         <v>42917</v>
       </c>
       <c r="C92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="D92" t="s">
@@ -4078,14 +9057,14 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2017</v>
       </c>
       <c r="B93" s="2">
         <v>42948</v>
       </c>
       <c r="C93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D93" t="s">
@@ -4112,14 +9091,14 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2017</v>
       </c>
       <c r="B94" s="2">
         <v>42979</v>
       </c>
       <c r="C94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="D94" t="s">
@@ -4146,14 +9125,14 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2017</v>
       </c>
       <c r="B95" s="2">
         <v>43009</v>
       </c>
       <c r="C95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="D95" t="s">
@@ -4180,14 +9159,14 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2017</v>
       </c>
       <c r="B96" s="2">
         <v>43040</v>
       </c>
       <c r="C96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="D96" t="s">
@@ -4214,14 +9193,14 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2017</v>
       </c>
       <c r="B97" s="2">
         <v>43070</v>
       </c>
       <c r="C97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="D97" t="s">
@@ -4248,14 +9227,14 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2018</v>
       </c>
       <c r="B98" s="2">
         <v>43101</v>
       </c>
       <c r="C98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D98" t="s">
@@ -4282,14 +9261,14 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2018</v>
       </c>
       <c r="B99" s="2">
         <v>43132</v>
       </c>
       <c r="C99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="D99" t="s">
@@ -4316,14 +9295,14 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2018</v>
       </c>
       <c r="B100" s="2">
         <v>43160</v>
       </c>
       <c r="C100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="D100" t="s">
@@ -4350,14 +9329,14 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2018</v>
       </c>
       <c r="B101" s="2">
         <v>43191</v>
       </c>
       <c r="C101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="D101" t="s">
@@ -4384,14 +9363,14 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2018</v>
       </c>
       <c r="B102" s="2">
         <v>43221</v>
       </c>
       <c r="C102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="D102" t="s">
@@ -4418,14 +9397,14 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2018</v>
       </c>
       <c r="B103" s="2">
         <v>43252</v>
       </c>
       <c r="C103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="D103" t="s">
@@ -4452,14 +9431,14 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2018</v>
       </c>
       <c r="B104" s="2">
         <v>43282</v>
       </c>
       <c r="C104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="D104" t="s">
@@ -4486,14 +9465,14 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2018</v>
       </c>
       <c r="B105" s="2">
         <v>43313</v>
       </c>
       <c r="C105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D105" t="s">
@@ -4520,14 +9499,14 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2018</v>
       </c>
       <c r="B106" s="2">
         <v>43344</v>
       </c>
       <c r="C106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="D106" t="s">
@@ -4554,14 +9533,14 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2018</v>
       </c>
       <c r="B107" s="2">
         <v>43374</v>
       </c>
       <c r="C107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="D107" t="s">
@@ -4588,14 +9567,14 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2018</v>
       </c>
       <c r="B108" s="2">
         <v>43405</v>
       </c>
       <c r="C108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="D108" t="s">
@@ -4622,14 +9601,14 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2018</v>
       </c>
       <c r="B109" s="2">
         <v>43435</v>
       </c>
       <c r="C109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="D109" t="s">
@@ -4656,14 +9635,14 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2019</v>
       </c>
       <c r="B110" s="2">
         <v>43466</v>
       </c>
       <c r="C110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D110" t="s">
@@ -4690,14 +9669,14 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2019</v>
       </c>
       <c r="B111" s="2">
         <v>43497</v>
       </c>
       <c r="C111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="D111" t="s">
@@ -4724,14 +9703,14 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2019</v>
       </c>
       <c r="B112" s="2">
         <v>43525</v>
       </c>
       <c r="C112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="D112" t="s">
@@ -4758,14 +9737,14 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2019</v>
       </c>
       <c r="B113" s="2">
         <v>43556</v>
       </c>
       <c r="C113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="D113" t="s">
@@ -4792,14 +9771,14 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2019</v>
       </c>
       <c r="B114" s="2">
         <v>43586</v>
       </c>
       <c r="C114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="D114" t="s">
@@ -4826,14 +9805,14 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2019</v>
       </c>
       <c r="B115" s="2">
         <v>43617</v>
       </c>
       <c r="C115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="D115" t="s">
@@ -4860,14 +9839,14 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2019</v>
       </c>
       <c r="B116" s="2">
         <v>43647</v>
       </c>
       <c r="C116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="D116" t="s">
@@ -4894,14 +9873,14 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2019</v>
       </c>
       <c r="B117" s="2">
         <v>43678</v>
       </c>
       <c r="C117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D117" t="s">
@@ -4928,14 +9907,14 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2019</v>
       </c>
       <c r="B118" s="2">
         <v>43709</v>
       </c>
       <c r="C118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="D118" t="s">
@@ -4962,14 +9941,14 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2019</v>
       </c>
       <c r="B119" s="2">
         <v>43739</v>
       </c>
       <c r="C119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="D119" t="s">
@@ -4996,14 +9975,14 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2019</v>
       </c>
       <c r="B120" s="2">
         <v>43770</v>
       </c>
       <c r="C120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="D120" t="s">
@@ -5030,14 +10009,14 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2019</v>
       </c>
       <c r="B121" s="2">
         <v>43800</v>
       </c>
       <c r="C121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="D121" t="s">
@@ -5064,14 +10043,14 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2020</v>
       </c>
       <c r="B122" s="2">
         <v>43831</v>
       </c>
       <c r="C122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D122" t="s">
@@ -5098,14 +10077,14 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2020</v>
       </c>
       <c r="B123" s="2">
         <v>43862</v>
       </c>
       <c r="C123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="D123" t="s">
@@ -5132,14 +10111,14 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2020</v>
       </c>
       <c r="B124" s="2">
         <v>43891</v>
       </c>
       <c r="C124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="D124" t="s">
@@ -5166,14 +10145,14 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2020</v>
       </c>
       <c r="B125" s="2">
         <v>43922</v>
       </c>
       <c r="C125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="D125" t="s">
@@ -5200,14 +10179,14 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2020</v>
       </c>
       <c r="B126" s="2">
         <v>43952</v>
       </c>
       <c r="C126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="D126" t="s">
@@ -5234,14 +10213,14 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2020</v>
       </c>
       <c r="B127" s="2">
         <v>43983</v>
       </c>
       <c r="C127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="D127" t="s">
@@ -5268,14 +10247,14 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2020</v>
       </c>
       <c r="B128" s="2">
         <v>44013</v>
       </c>
       <c r="C128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="D128" t="s">
@@ -5302,14 +10281,14 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2020</v>
       </c>
       <c r="B129" s="2">
         <v>44044</v>
       </c>
       <c r="C129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D129" t="s">
@@ -5336,14 +10315,14 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2020</v>
       </c>
       <c r="B130" s="2">
         <v>44075</v>
       </c>
       <c r="C130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="D130" t="s">
@@ -5369,17 +10348,21 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M1:U7">
+    <sortCondition ref="M2:M7"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:U130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5394,9 +10377,17 @@
     <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -5427,8 +10418,33 @@
       <c r="J1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>YEAR(B2)</f>
         <v>2010</v>
@@ -5461,8 +10477,40 @@
       <c r="J2">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M2" s="7">
+        <v>2015</v>
+      </c>
+      <c r="N2" s="11">
+        <f>AVERAGEIF($A$2:$A$130, "2015", $F$2:$F$130)</f>
+        <v>2410.4166666666665</v>
+      </c>
+      <c r="O2" s="7" t="str">
+        <f>M2&amp;REPT(" ", 15)</f>
+        <v xml:space="preserve">2015               </v>
+      </c>
+      <c r="P2" s="9">
+        <f>N2</f>
+        <v>2410.4166666666665</v>
+      </c>
+      <c r="Q2" s="10">
+        <f>P3</f>
+        <v>1867.25</v>
+      </c>
+      <c r="R2" s="10">
+        <f>P2-Q2</f>
+        <v>543.16666666666652</v>
+      </c>
+      <c r="S2" s="7"/>
+      <c r="T2" s="10">
+        <f>R2-S2</f>
+        <v>543.16666666666652</v>
+      </c>
+      <c r="U2" s="3">
+        <f>IFERROR((P3-P2)/P2,0)</f>
+        <v>-0.22534140017286081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A66" si="0">YEAR(B3)</f>
         <v>2010</v>
@@ -5495,8 +10543,40 @@
       <c r="J3">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M3" s="6">
+        <v>2016</v>
+      </c>
+      <c r="N3" s="11">
+        <f>AVERAGEIF($A$2:$A$130, "2016", $F$2:$F$130)</f>
+        <v>1867.25</v>
+      </c>
+      <c r="O3" s="7" t="str">
+        <f t="shared" ref="O3:O7" si="2">M3&amp;REPT(" ", 15)</f>
+        <v xml:space="preserve">2016               </v>
+      </c>
+      <c r="P3" s="9">
+        <f t="shared" ref="P2:Q7" si="3">N3</f>
+        <v>1867.25</v>
+      </c>
+      <c r="Q3" s="10">
+        <f t="shared" ref="Q3:Q6" si="4">P4</f>
+        <v>1807.9166666666667</v>
+      </c>
+      <c r="R3" s="5">
+        <f>P3-Q3</f>
+        <v>59.333333333333258</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="5">
+        <f>R3-S3</f>
+        <v>59.333333333333258</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" ref="U3:U6" si="5">IFERROR((P4-P3)/P3,0)</f>
+        <v>-3.1775784353103902E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -5529,8 +10609,39 @@
       <c r="J4">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4" s="6">
+        <v>2017</v>
+      </c>
+      <c r="N4" s="11">
+        <f>AVERAGEIF($A$2:$A$130, "2017", $F$2:$F$130)</f>
+        <v>1807.9166666666667</v>
+      </c>
+      <c r="O4" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">2017               </v>
+      </c>
+      <c r="P4" s="9">
+        <f t="shared" si="3"/>
+        <v>1807.9166666666667</v>
+      </c>
+      <c r="Q4" s="10">
+        <f t="shared" si="4"/>
+        <v>2384.5</v>
+      </c>
+      <c r="R4" s="5">
+        <f>P4-Q4</f>
+        <v>-576.58333333333326</v>
+      </c>
+      <c r="S4" s="6">
+        <v>577</v>
+      </c>
+      <c r="T4" s="5"/>
+      <c r="U4" s="3">
+        <f t="shared" si="5"/>
+        <v>0.3189214104632403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -5563,8 +10674,40 @@
       <c r="J5">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5" s="6">
+        <v>2018</v>
+      </c>
+      <c r="N5" s="11">
+        <f>AVERAGEIF($A$2:$A$130, "2018", $F$2:$F$130)</f>
+        <v>2384.5</v>
+      </c>
+      <c r="O5" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">2018               </v>
+      </c>
+      <c r="P5" s="9">
+        <f t="shared" si="3"/>
+        <v>2384.5</v>
+      </c>
+      <c r="Q5" s="10">
+        <f t="shared" si="4"/>
+        <v>1736.3333333333333</v>
+      </c>
+      <c r="R5" s="5">
+        <f>P5-Q5</f>
+        <v>648.16666666666674</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="5">
+        <f>R5-S5</f>
+        <v>648.16666666666674</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.27182498077863987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -5597,8 +10740,40 @@
       <c r="J6">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M6" s="6">
+        <v>2019</v>
+      </c>
+      <c r="N6" s="11">
+        <f>AVERAGEIF($A$2:$A$130, "2019", $F$2:$F$130)</f>
+        <v>1736.3333333333333</v>
+      </c>
+      <c r="O6" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">2019               </v>
+      </c>
+      <c r="P6" s="9">
+        <f t="shared" si="3"/>
+        <v>1736.3333333333333</v>
+      </c>
+      <c r="Q6" s="10">
+        <f t="shared" si="4"/>
+        <v>1496</v>
+      </c>
+      <c r="R6" s="5">
+        <f>P6-Q6</f>
+        <v>240.33333333333326</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="5">
+        <f>R6-S6</f>
+        <v>240.33333333333326</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.13841428297177957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -5631,8 +10806,28 @@
       <c r="J7">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7" s="6">
+        <v>2020</v>
+      </c>
+      <c r="N7" s="11">
+        <f>AVERAGEIF($A$2:$A$130, "2020", $F$2:$F$130)</f>
+        <v>1496</v>
+      </c>
+      <c r="O7" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">2020               </v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" si="3"/>
+        <v>1496</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -5666,7 +10861,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -5700,7 +10895,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -5734,7 +10929,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -5768,7 +10963,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -5802,7 +10997,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -5836,7 +11031,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -5870,7 +11065,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -5904,7 +11099,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -7640,14 +12835,14 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" ref="A67:A130" si="2">YEAR(B67)</f>
+        <f t="shared" ref="A67:A130" si="6">YEAR(B67)</f>
         <v>2015</v>
       </c>
       <c r="B67" s="1">
         <v>42156</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" si="3">MONTH(B67)</f>
+        <f t="shared" ref="C67:C130" si="7">MONTH(B67)</f>
         <v>6</v>
       </c>
       <c r="D67" t="s">
@@ -7674,14 +12869,14 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B68" s="1">
         <v>42186</v>
       </c>
       <c r="C68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D68" t="s">
@@ -7708,14 +12903,14 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B69" s="1">
         <v>42217</v>
       </c>
       <c r="C69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="D69" t="s">
@@ -7742,14 +12937,14 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B70" s="1">
         <v>42248</v>
       </c>
       <c r="C70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="D70" t="s">
@@ -7776,14 +12971,14 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B71" s="1">
         <v>42278</v>
       </c>
       <c r="C71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D71" t="s">
@@ -7810,14 +13005,14 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B72" s="1">
         <v>42309</v>
       </c>
       <c r="C72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="D72" t="s">
@@ -7844,14 +13039,14 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B73" s="1">
         <v>42339</v>
       </c>
       <c r="C73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="D73" t="s">
@@ -7878,14 +13073,14 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B74" s="1">
         <v>42370</v>
       </c>
       <c r="C74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D74" t="s">
@@ -7912,14 +13107,14 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B75" s="1">
         <v>42401</v>
       </c>
       <c r="C75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D75" t="s">
@@ -7946,14 +13141,14 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B76" s="1">
         <v>42430</v>
       </c>
       <c r="C76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D76" t="s">
@@ -7980,14 +13175,14 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B77" s="1">
         <v>42461</v>
       </c>
       <c r="C77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D77" t="s">
@@ -8014,14 +13209,14 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B78" s="1">
         <v>42491</v>
       </c>
       <c r="C78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D78" t="s">
@@ -8048,14 +13243,14 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B79" s="1">
         <v>42522</v>
       </c>
       <c r="C79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D79" t="s">
@@ -8082,14 +13277,14 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B80" s="1">
         <v>42552</v>
       </c>
       <c r="C80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D80" t="s">
@@ -8116,14 +13311,14 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B81" s="1">
         <v>42583</v>
       </c>
       <c r="C81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="D81" t="s">
@@ -8150,14 +13345,14 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B82" s="1">
         <v>42614</v>
       </c>
       <c r="C82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="D82" t="s">
@@ -8184,14 +13379,14 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B83" s="1">
         <v>42644</v>
       </c>
       <c r="C83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D83" t="s">
@@ -8218,14 +13413,14 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B84" s="1">
         <v>42675</v>
       </c>
       <c r="C84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="D84" t="s">
@@ -8252,14 +13447,14 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B85" s="1">
         <v>42705</v>
       </c>
       <c r="C85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="D85" t="s">
@@ -8286,14 +13481,14 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B86" s="1">
         <v>42736</v>
       </c>
       <c r="C86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D86" t="s">
@@ -8320,14 +13515,14 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B87" s="1">
         <v>42767</v>
       </c>
       <c r="C87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D87" t="s">
@@ -8354,14 +13549,14 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B88" s="1">
         <v>42795</v>
       </c>
       <c r="C88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D88" t="s">
@@ -8388,14 +13583,14 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B89" s="1">
         <v>42826</v>
       </c>
       <c r="C89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D89" t="s">
@@ -8422,14 +13617,14 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B90" s="1">
         <v>42856</v>
       </c>
       <c r="C90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D90" t="s">
@@ -8456,14 +13651,14 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B91" s="1">
         <v>42887</v>
       </c>
       <c r="C91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D91" t="s">
@@ -8490,14 +13685,14 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B92" s="1">
         <v>42917</v>
       </c>
       <c r="C92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D92" t="s">
@@ -8524,14 +13719,14 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B93" s="1">
         <v>42948</v>
       </c>
       <c r="C93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="D93" t="s">
@@ -8558,14 +13753,14 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B94" s="1">
         <v>42979</v>
       </c>
       <c r="C94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="D94" t="s">
@@ -8592,14 +13787,14 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B95" s="1">
         <v>43009</v>
       </c>
       <c r="C95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D95" t="s">
@@ -8626,14 +13821,14 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B96" s="1">
         <v>43040</v>
       </c>
       <c r="C96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="D96" t="s">
@@ -8660,14 +13855,14 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B97" s="1">
         <v>43070</v>
       </c>
       <c r="C97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="D97" t="s">
@@ -8694,14 +13889,14 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B98" s="1">
         <v>43101</v>
       </c>
       <c r="C98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D98" t="s">
@@ -8728,14 +13923,14 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B99" s="1">
         <v>43132</v>
       </c>
       <c r="C99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D99" t="s">
@@ -8762,14 +13957,14 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B100" s="1">
         <v>43160</v>
       </c>
       <c r="C100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D100" t="s">
@@ -8796,14 +13991,14 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B101" s="1">
         <v>43191</v>
       </c>
       <c r="C101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D101" t="s">
@@ -8830,14 +14025,14 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B102" s="1">
         <v>43221</v>
       </c>
       <c r="C102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D102" t="s">
@@ -8864,14 +14059,14 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B103" s="1">
         <v>43252</v>
       </c>
       <c r="C103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D103" t="s">
@@ -8898,14 +14093,14 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B104" s="1">
         <v>43282</v>
       </c>
       <c r="C104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D104" t="s">
@@ -8932,14 +14127,14 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B105" s="1">
         <v>43313</v>
       </c>
       <c r="C105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="D105" t="s">
@@ -8966,14 +14161,14 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B106" s="1">
         <v>43344</v>
       </c>
       <c r="C106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="D106" t="s">
@@ -9000,14 +14195,14 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B107" s="1">
         <v>43374</v>
       </c>
       <c r="C107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D107" t="s">
@@ -9034,14 +14229,14 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B108" s="1">
         <v>43405</v>
       </c>
       <c r="C108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="D108" t="s">
@@ -9068,14 +14263,14 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B109" s="1">
         <v>43435</v>
       </c>
       <c r="C109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="D109" t="s">
@@ -9102,14 +14297,14 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B110" s="1">
         <v>43466</v>
       </c>
       <c r="C110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D110" t="s">
@@ -9136,14 +14331,14 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B111" s="1">
         <v>43497</v>
       </c>
       <c r="C111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D111" t="s">
@@ -9170,14 +14365,14 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B112" s="1">
         <v>43525</v>
       </c>
       <c r="C112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D112" t="s">
@@ -9204,14 +14399,14 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B113" s="1">
         <v>43556</v>
       </c>
       <c r="C113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D113" t="s">
@@ -9238,14 +14433,14 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B114" s="1">
         <v>43586</v>
       </c>
       <c r="C114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D114" t="s">
@@ -9272,14 +14467,14 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B115" s="1">
         <v>43617</v>
       </c>
       <c r="C115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D115" t="s">
@@ -9306,14 +14501,14 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B116" s="1">
         <v>43647</v>
       </c>
       <c r="C116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D116" t="s">
@@ -9340,14 +14535,14 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B117" s="1">
         <v>43678</v>
       </c>
       <c r="C117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="D117" t="s">
@@ -9374,14 +14569,14 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B118" s="1">
         <v>43709</v>
       </c>
       <c r="C118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="D118" t="s">
@@ -9408,14 +14603,14 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B119" s="1">
         <v>43739</v>
       </c>
       <c r="C119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D119" t="s">
@@ -9442,14 +14637,14 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B120" s="1">
         <v>43770</v>
       </c>
       <c r="C120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="D120" t="s">
@@ -9476,14 +14671,14 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B121" s="1">
         <v>43800</v>
       </c>
       <c r="C121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="D121" t="s">
@@ -9510,14 +14705,14 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
       <c r="B122" s="1">
         <v>43831</v>
       </c>
       <c r="C122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D122" t="s">
@@ -9544,14 +14739,14 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
       <c r="B123" s="1">
         <v>43862</v>
       </c>
       <c r="C123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D123" t="s">
@@ -9578,14 +14773,14 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
       <c r="B124" s="1">
         <v>43891</v>
       </c>
       <c r="C124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D124" t="s">
@@ -9612,14 +14807,14 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
       <c r="B125" s="1">
         <v>43922</v>
       </c>
       <c r="C125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D125" t="s">
@@ -9646,14 +14841,14 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
       <c r="B126" s="1">
         <v>43952</v>
       </c>
       <c r="C126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D126" t="s">
@@ -9680,14 +14875,14 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
       <c r="B127" s="1">
         <v>43983</v>
       </c>
       <c r="C127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D127" t="s">
@@ -9714,14 +14909,14 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
       <c r="B128" s="1">
         <v>44013</v>
       </c>
       <c r="C128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D128" t="s">
@@ -9748,14 +14943,14 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
       <c r="B129" s="1">
         <v>44044</v>
       </c>
       <c r="C129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="D129" t="s">
@@ -9782,14 +14977,14 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
       <c r="B130" s="1">
         <v>44075</v>
       </c>
       <c r="C130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="D130" t="s">
@@ -9816,15 +15011,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J133"/>
+  <dimension ref="A1:U133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9840,9 +15036,18 @@
     <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -9873,8 +15078,33 @@
       <c r="J1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>YEAR(B2)</f>
         <v>2010</v>
@@ -9907,8 +15137,39 @@
       <c r="J2">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M2" s="7">
+        <v>2015</v>
+      </c>
+      <c r="N2" s="11">
+        <f>AVERAGEIF($A$2:$A$130, "2015", $F$2:$F$130)</f>
+        <v>337</v>
+      </c>
+      <c r="O2" s="7" t="str">
+        <f>M2&amp;REPT(" ", 15)</f>
+        <v xml:space="preserve">2015               </v>
+      </c>
+      <c r="P2" s="9">
+        <f>N2</f>
+        <v>337</v>
+      </c>
+      <c r="Q2" s="10">
+        <f>P3</f>
+        <v>354.5</v>
+      </c>
+      <c r="R2" s="10">
+        <f>P2-Q2</f>
+        <v>-17.5</v>
+      </c>
+      <c r="S2" s="10">
+        <v>18</v>
+      </c>
+      <c r="T2" s="10"/>
+      <c r="U2" s="3">
+        <f>IFERROR((P3-P2)/P2,0)</f>
+        <v>5.192878338278932E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A66" si="0">YEAR(B3)</f>
         <v>2010</v>
@@ -9941,8 +15202,40 @@
       <c r="J3">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M3" s="6">
+        <v>2016</v>
+      </c>
+      <c r="N3" s="11">
+        <f>AVERAGEIF($A$2:$A$130, "2016", $F$2:$F$130)</f>
+        <v>354.5</v>
+      </c>
+      <c r="O3" s="7" t="str">
+        <f t="shared" ref="O3:O7" si="2">M3&amp;REPT(" ", 15)</f>
+        <v xml:space="preserve">2016               </v>
+      </c>
+      <c r="P3" s="9">
+        <f t="shared" ref="P3:P7" si="3">N3</f>
+        <v>354.5</v>
+      </c>
+      <c r="Q3" s="10">
+        <f t="shared" ref="Q3:Q6" si="4">P4</f>
+        <v>290.83333333333331</v>
+      </c>
+      <c r="R3" s="5">
+        <f>P3-Q3</f>
+        <v>63.666666666666686</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="5">
+        <f>R3</f>
+        <v>63.666666666666686</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" ref="U3:U6" si="5">IFERROR((P4-P3)/P3,0)</f>
+        <v>-0.17959567465914439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -9975,8 +15268,39 @@
       <c r="J4">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4" s="6">
+        <v>2017</v>
+      </c>
+      <c r="N4" s="11">
+        <f>AVERAGEIF($A$2:$A$130, "2017", $F$2:$F$130)</f>
+        <v>290.83333333333331</v>
+      </c>
+      <c r="O4" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">2017               </v>
+      </c>
+      <c r="P4" s="9">
+        <f t="shared" si="3"/>
+        <v>290.83333333333331</v>
+      </c>
+      <c r="Q4" s="10">
+        <f t="shared" si="4"/>
+        <v>301.91666666666669</v>
+      </c>
+      <c r="R4" s="5">
+        <f>P4-Q4</f>
+        <v>-11.083333333333371</v>
+      </c>
+      <c r="S4" s="5">
+        <v>11</v>
+      </c>
+      <c r="T4" s="5"/>
+      <c r="U4" s="3">
+        <f t="shared" si="5"/>
+        <v>3.8108882521490105E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -10009,8 +15333,40 @@
       <c r="J5">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5" s="6">
+        <v>2018</v>
+      </c>
+      <c r="N5" s="11">
+        <f>AVERAGEIF($A$2:$A$130, "2018", $F$2:$F$130)</f>
+        <v>301.91666666666669</v>
+      </c>
+      <c r="O5" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">2018               </v>
+      </c>
+      <c r="P5" s="9">
+        <f t="shared" si="3"/>
+        <v>301.91666666666669</v>
+      </c>
+      <c r="Q5" s="10">
+        <f t="shared" si="4"/>
+        <v>226.91666666666666</v>
+      </c>
+      <c r="R5" s="5">
+        <f>P5-Q5</f>
+        <v>75.000000000000028</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="5">
+        <f>R5</f>
+        <v>75.000000000000028</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.2484129174717086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -10043,8 +15399,39 @@
       <c r="J6">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M6" s="6">
+        <v>2019</v>
+      </c>
+      <c r="N6" s="11">
+        <f>AVERAGEIF($A$2:$A$130, "2019", $F$2:$F$130)</f>
+        <v>226.91666666666666</v>
+      </c>
+      <c r="O6" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">2019               </v>
+      </c>
+      <c r="P6" s="9">
+        <f t="shared" si="3"/>
+        <v>226.91666666666666</v>
+      </c>
+      <c r="Q6" s="10">
+        <f t="shared" si="4"/>
+        <v>254.77777777777777</v>
+      </c>
+      <c r="R6" s="5">
+        <f>P6-Q6</f>
+        <v>-27.861111111111114</v>
+      </c>
+      <c r="S6" s="5">
+        <v>28</v>
+      </c>
+      <c r="T6" s="5"/>
+      <c r="U6" s="3">
+        <f t="shared" si="5"/>
+        <v>0.12278124617456239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -10077,8 +15464,28 @@
       <c r="J7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7" s="6">
+        <v>2020</v>
+      </c>
+      <c r="N7" s="11">
+        <f>AVERAGEIF($A$2:$A$130, "2020", $F$2:$F$130)</f>
+        <v>254.77777777777777</v>
+      </c>
+      <c r="O7" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">2020               </v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" si="3"/>
+        <v>254.77777777777777</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -10112,7 +15519,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -10146,7 +15553,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -10180,7 +15587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -10214,7 +15621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -10248,7 +15655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -10282,7 +15689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -10316,7 +15723,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -10350,7 +15757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -12086,14 +17493,14 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" ref="A67:A130" si="2">YEAR(B67)</f>
+        <f t="shared" ref="A67:A130" si="6">YEAR(B67)</f>
         <v>2015</v>
       </c>
       <c r="B67" s="1">
         <v>42156</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" si="3">MONTH(B67)</f>
+        <f t="shared" ref="C67:C130" si="7">MONTH(B67)</f>
         <v>6</v>
       </c>
       <c r="D67" t="s">
@@ -12120,14 +17527,14 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B68" s="1">
         <v>42186</v>
       </c>
       <c r="C68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D68" t="s">
@@ -12154,14 +17561,14 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B69" s="1">
         <v>42217</v>
       </c>
       <c r="C69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="D69" t="s">
@@ -12188,14 +17595,14 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B70" s="1">
         <v>42248</v>
       </c>
       <c r="C70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="D70" t="s">
@@ -12222,14 +17629,14 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B71" s="1">
         <v>42278</v>
       </c>
       <c r="C71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D71" t="s">
@@ -12256,14 +17663,14 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B72" s="1">
         <v>42309</v>
       </c>
       <c r="C72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="D72" t="s">
@@ -12290,14 +17697,14 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B73" s="1">
         <v>42339</v>
       </c>
       <c r="C73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="D73" t="s">
@@ -12324,14 +17731,14 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B74" s="1">
         <v>42370</v>
       </c>
       <c r="C74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D74" t="s">
@@ -12358,14 +17765,14 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B75" s="1">
         <v>42401</v>
       </c>
       <c r="C75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D75" t="s">
@@ -12392,14 +17799,14 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B76" s="1">
         <v>42430</v>
       </c>
       <c r="C76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D76" t="s">
@@ -12426,14 +17833,14 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B77" s="1">
         <v>42461</v>
       </c>
       <c r="C77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D77" t="s">
@@ -12460,14 +17867,14 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B78" s="1">
         <v>42491</v>
       </c>
       <c r="C78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D78" t="s">
@@ -12494,14 +17901,14 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B79" s="1">
         <v>42522</v>
       </c>
       <c r="C79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D79" t="s">
@@ -12528,14 +17935,14 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B80" s="1">
         <v>42552</v>
       </c>
       <c r="C80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D80" t="s">
@@ -12562,14 +17969,14 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B81" s="1">
         <v>42583</v>
       </c>
       <c r="C81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="D81" t="s">
@@ -12596,14 +18003,14 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B82" s="1">
         <v>42614</v>
       </c>
       <c r="C82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="D82" t="s">
@@ -12630,14 +18037,14 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B83" s="1">
         <v>42644</v>
       </c>
       <c r="C83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D83" t="s">
@@ -12664,14 +18071,14 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B84" s="1">
         <v>42675</v>
       </c>
       <c r="C84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="D84" t="s">
@@ -12698,14 +18105,14 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B85" s="1">
         <v>42705</v>
       </c>
       <c r="C85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="D85" t="s">
@@ -12732,14 +18139,14 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B86" s="1">
         <v>42736</v>
       </c>
       <c r="C86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D86" t="s">
@@ -12766,14 +18173,14 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B87" s="1">
         <v>42767</v>
       </c>
       <c r="C87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D87" t="s">
@@ -12800,14 +18207,14 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B88" s="1">
         <v>42795</v>
       </c>
       <c r="C88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D88" t="s">
@@ -12834,14 +18241,14 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B89" s="1">
         <v>42826</v>
       </c>
       <c r="C89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D89" t="s">
@@ -12868,14 +18275,14 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B90" s="1">
         <v>42856</v>
       </c>
       <c r="C90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D90" t="s">
@@ -12902,14 +18309,14 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B91" s="1">
         <v>42887</v>
       </c>
       <c r="C91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D91" t="s">
@@ -12936,14 +18343,14 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B92" s="1">
         <v>42917</v>
       </c>
       <c r="C92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D92" t="s">
@@ -12970,14 +18377,14 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B93" s="1">
         <v>42948</v>
       </c>
       <c r="C93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="D93" t="s">
@@ -13004,14 +18411,14 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B94" s="1">
         <v>42979</v>
       </c>
       <c r="C94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="D94" t="s">
@@ -13038,14 +18445,14 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B95" s="1">
         <v>43009</v>
       </c>
       <c r="C95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D95" t="s">
@@ -13072,14 +18479,14 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B96" s="1">
         <v>43040</v>
       </c>
       <c r="C96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="D96" t="s">
@@ -13106,14 +18513,14 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B97" s="1">
         <v>43070</v>
       </c>
       <c r="C97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="D97" t="s">
@@ -13140,14 +18547,14 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B98" s="1">
         <v>43101</v>
       </c>
       <c r="C98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D98" t="s">
@@ -13174,14 +18581,14 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B99" s="1">
         <v>43132</v>
       </c>
       <c r="C99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D99" t="s">
@@ -13208,14 +18615,14 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B100" s="1">
         <v>43160</v>
       </c>
       <c r="C100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D100" t="s">
@@ -13242,14 +18649,14 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B101" s="1">
         <v>43191</v>
       </c>
       <c r="C101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D101" t="s">
@@ -13276,14 +18683,14 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B102" s="1">
         <v>43221</v>
       </c>
       <c r="C102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D102" t="s">
@@ -13310,14 +18717,14 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B103" s="1">
         <v>43252</v>
       </c>
       <c r="C103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D103" t="s">
@@ -13344,14 +18751,14 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B104" s="1">
         <v>43282</v>
       </c>
       <c r="C104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D104" t="s">
@@ -13378,14 +18785,14 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B105" s="1">
         <v>43313</v>
       </c>
       <c r="C105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="D105" t="s">
@@ -13412,14 +18819,14 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B106" s="1">
         <v>43344</v>
       </c>
       <c r="C106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="D106" t="s">
@@ -13446,14 +18853,14 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B107" s="1">
         <v>43374</v>
       </c>
       <c r="C107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D107" t="s">
@@ -13480,14 +18887,14 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B108" s="1">
         <v>43405</v>
       </c>
       <c r="C108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="D108" t="s">
@@ -13514,14 +18921,14 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B109" s="1">
         <v>43435</v>
       </c>
       <c r="C109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="D109" t="s">
@@ -13548,14 +18955,14 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B110" s="1">
         <v>43466</v>
       </c>
       <c r="C110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D110" t="s">
@@ -13582,14 +18989,14 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B111" s="1">
         <v>43497</v>
       </c>
       <c r="C111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D111" t="s">
@@ -13616,14 +19023,14 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B112" s="1">
         <v>43525</v>
       </c>
       <c r="C112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D112" t="s">
@@ -13650,14 +19057,14 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B113" s="1">
         <v>43556</v>
       </c>
       <c r="C113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D113" t="s">
@@ -13684,14 +19091,14 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B114" s="1">
         <v>43586</v>
       </c>
       <c r="C114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D114" t="s">
@@ -13718,14 +19125,14 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B115" s="1">
         <v>43617</v>
       </c>
       <c r="C115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D115" t="s">
@@ -13752,14 +19159,14 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B116" s="1">
         <v>43647</v>
       </c>
       <c r="C116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D116" t="s">
@@ -13786,14 +19193,14 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B117" s="1">
         <v>43678</v>
       </c>
       <c r="C117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="D117" t="s">
@@ -13820,14 +19227,14 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B118" s="1">
         <v>43709</v>
       </c>
       <c r="C118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="D118" t="s">
@@ -13854,14 +19261,14 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B119" s="1">
         <v>43739</v>
       </c>
       <c r="C119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="D119" t="s">
@@ -13888,14 +19295,14 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B120" s="1">
         <v>43770</v>
       </c>
       <c r="C120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="D120" t="s">
@@ -13922,14 +19329,14 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B121" s="1">
         <v>43800</v>
       </c>
       <c r="C121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="D121" t="s">
@@ -13956,14 +19363,14 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
       <c r="B122" s="1">
         <v>43831</v>
       </c>
       <c r="C122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D122" t="s">
@@ -13990,14 +19397,14 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
       <c r="B123" s="1">
         <v>43862</v>
       </c>
       <c r="C123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D123" t="s">
@@ -14024,14 +19431,14 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
       <c r="B124" s="1">
         <v>43891</v>
       </c>
       <c r="C124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D124" t="s">
@@ -14058,14 +19465,14 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
       <c r="B125" s="1">
         <v>43922</v>
       </c>
       <c r="C125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D125" t="s">
@@ -14092,14 +19499,14 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
       <c r="B126" s="1">
         <v>43952</v>
       </c>
       <c r="C126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D126" t="s">
@@ -14126,14 +19533,14 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
       <c r="B127" s="1">
         <v>43983</v>
       </c>
       <c r="C127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D127" t="s">
@@ -14160,14 +19567,14 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
       <c r="B128" s="1">
         <v>44013</v>
       </c>
       <c r="C128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D128" t="s">
@@ -14194,14 +19601,14 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
       <c r="B129" s="1">
         <v>44044</v>
       </c>
       <c r="C129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="D129" t="s">
@@ -14228,14 +19635,14 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2020</v>
       </c>
       <c r="B130" s="1">
         <v>44075</v>
       </c>
       <c r="C130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="D130" t="s">
@@ -14262,11 +19669,11 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
-        <f t="shared" ref="A131:A133" si="4">YEAR(B131)</f>
+        <f t="shared" ref="A131:A133" si="8">YEAR(B131)</f>
         <v>1900</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C133" si="5">MONTH(B131)</f>
+        <f t="shared" ref="C131:C133" si="9">MONTH(B131)</f>
         <v>1</v>
       </c>
       <c r="D131" t="s">
@@ -14278,11 +19685,11 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1900</v>
       </c>
       <c r="C132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D132" t="s">
@@ -14294,11 +19701,11 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1900</v>
       </c>
       <c r="C133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D133" t="s">
@@ -14310,6 +19717,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
